--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
+          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>778</v>
+        <v>4950</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/01/2022</t>
+          <t>19/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>778</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>31/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>987000</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
+          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>987000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02/06/2020</t>
+          <t>16/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
+          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>02/06/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Carbonato de Litio Mejillones</t>
+          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>583500</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
+          <t>Planta Carbonato de Litio Mejillones</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>450000</v>
+        <v>583500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
+          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/06/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
+          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CALTEC SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>07/06/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
+          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>CALTEC SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
+          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/05/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Aceites Residuales</t>
+          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Recicladora Ambiental Ltda.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>27/05/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
+          <t>Transporte de Aceites Residuales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Recicladora Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
+          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Áridos San Pedro SpA</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/04/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>13/04/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Áridos San Pedro SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2080</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>14/10/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>2050</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2500</v>
+        <v>19500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>212</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,30 +2680,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17000</v>
+        <v>210</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Construcción Hotel Royal Decameron Atacama</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hoteles Decameron Colombia S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
+          <t>Construcción Hotel Royal Decameron Atacama</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Comunidad Atacameña de Toconao</t>
+          <t>Hoteles Decameron Colombia S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12614</v>
+        <v>7000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Comunidad Atacameña de Toconao</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2450</v>
+        <v>12614</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>20000</v>
+        <v>2450</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07/12/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>07/12/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Prospección Minera El laco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Prospección Minera El laco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>09/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>16200</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/05/2011</t>
+          <t>15/07/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>600</v>
+        <v>16200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>13/05/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4800</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17000</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación Planta SOP</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100000</v>
+        <v>4800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación Planta SOP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1750</v>
+        <v>100000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>78</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>70000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>19/03/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>114</v>
+        <v>50000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>19/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>41075</v>
+        <v>114</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4050</v>
+        <v>41075</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>03/02/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorge Tellería Sepúlveda</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Jorge Tellería Sepúlveda</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Matias Riroroko Pakomio</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>17/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Matias Riroroko Pakomio</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/12/2009</t>
+          <t>17/12/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>15/12/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2847</v>
+        <v>91</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5435,21 +5435,21 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2791</v>
+        <v>2847</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>17/06/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>2791</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>17/06/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19/05/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,10 +5560,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5571,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>19/05/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,14 +5608,10 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>380</v>
+        <v>17000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
+          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/05/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Planta SOP (e-seia)</t>
+          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/04/2009</t>
+          <t>07/05/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,10 +5748,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>Modificación Planta SOP (e-seia)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5759,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Chilena de Litio Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>23/04/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5811,7 +5815,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/03/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5821,7 +5825,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5836,14 +5840,10 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5851,25 +5851,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Chilena de Litio Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2667</v>
+        <v>17000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>27/03/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,10 +5884,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5895,25 +5899,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX UNO de Peine</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>43200</v>
+        <v>2667</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/02/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5928,14 +5932,10 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5943,25 +5943,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Sociedad Legal Minera NX UNO de Peine</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>527393</v>
+        <v>43200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>21/01/2009</t>
+          <t>20/02/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
+          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5991,25 +5991,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>527393</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>21/01/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6034,30 +6034,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6087,25 +6087,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6191,17 +6191,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6231,25 +6231,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6279,25 +6279,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,15 +6471,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6514,30 +6514,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Celso Eusebio Tapia Palavecinos</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
+          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6571,21 +6571,21 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
+          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6663,25 +6663,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Celso Eusebio Tapia Palavecinos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6719,17 +6719,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6754,30 +6754,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Producción de Sales de Potasio (e-seia)</t>
+          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,17 +6815,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>17/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
+          <t>Producción de Sales de Potasio (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6855,25 +6855,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Juan Roberto Honorato Errázuriz</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1025</v>
+        <v>43200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/12/2007</t>
+          <t>17/12/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6911,17 +6911,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>11/12/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6955,11 +6955,11 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6994,30 +6994,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Juan Roberto Honorato Errázuriz</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>429</v>
+        <v>950</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7042,20 +7042,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7090,30 +7090,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/10/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7143,15 +7143,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7191,15 +7191,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7234,30 +7234,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7295,17 +7295,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>28/02/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7330,30 +7330,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7383,25 +7383,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7416,40 +7416,40 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>300000</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
+          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7479,25 +7479,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Indeclin Ltda.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>74</v>
+        <v>300000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>03/01/2007</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7522,20 +7522,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Indeclin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>03/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7570,20 +7570,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>569</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7618,30 +7618,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,17 +7679,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7762,30 +7762,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>alberto eduardo oñate cea</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7810,30 +7810,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>alberto eduardo oñate cea</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -7871,17 +7871,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7911,25 +7911,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,17 +7967,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8007,25 +8007,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4130</v>
+        <v>500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8040,30 +8040,30 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
+          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2500</v>
+        <v>4130</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/11/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
+          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8103,25 +8103,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/11/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
+          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8151,25 +8151,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8184,12 +8184,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8199,25 +8199,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8255,17 +8255,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8280,12 +8280,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Hotel Kunza</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8295,25 +8295,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Inversiones Surandino S.A</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>Hotel Kunza</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8343,25 +8343,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Inversiones Surandino S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8391,25 +8391,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21/01/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
+          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8439,15 +8439,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>234198</v>
+        <v>88</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>10/01/2005</t>
+          <t>21/01/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8472,12 +8472,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
+          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8487,25 +8487,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>234198</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/12/2004</t>
+          <t>10/01/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Hotel Rayo de Solor</t>
+          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8535,25 +8535,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>23/12/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Hotel Rayo de Solor</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8583,15 +8583,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8631,15 +8631,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
+          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8679,25 +8679,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Terracota Excursiones</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>18/08/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
+          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8727,25 +8727,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SEREMI MINVU II REGION</t>
+          <t>Terracota Excursiones</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>18/08/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8760,12 +8760,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Agro Turístico Terraluna</t>
+          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8775,25 +8775,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>SEREMI MINVU II REGION</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8808,12 +8808,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
+          <t>Agro Turístico Terraluna</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8823,25 +8823,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Wilson Manuel Reyes Araya</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hotel en Solcor</t>
+          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8871,25 +8871,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Wilson Manuel Reyes Araya</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>21/11/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Hotel en Solcor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8919,15 +8919,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>18/11/2003</t>
+          <t>21/11/2003</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8967,25 +8967,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Jorge Mario Schellman Balacco</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>23/04/2003</t>
+          <t>18/11/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
+          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,17 +9023,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>14/04/2003</t>
+          <t>23/04/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9058,30 +9058,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Jorge Mario Schellman Balacco</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/04/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -9119,17 +9119,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9144,40 +9144,40 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>552000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9192,12 +9192,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -9207,25 +9207,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2000</v>
+        <v>552000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Turismo de Naturaleza en Beter</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9255,25 +9255,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Valles del Sur S.A.</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
+          <t>Turismo de Naturaleza en Beter</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9303,15 +9303,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Valles del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4540</v>
+        <v>3000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
+          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9351,15 +9351,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9384,12 +9384,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
+          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9399,15 +9399,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SLM PAO</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/01/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Agua del Río Puritama</t>
+          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9447,15 +9447,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>SLM PAO</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>23/01/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Hotel en Conde Duque</t>
+          <t>Aprovechamiento de Agua del Río Puritama</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9495,15 +9495,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Juan Francisco d`Etigny Lira</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/03/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
+          <t>Hotel en Conde Duque</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9543,15 +9543,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Humberto Urdangarin Beltrán</t>
+          <t>Juan Francisco d`Etigny Lira</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>5400</v>
+        <v>40</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>12/03/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Construcción de Pozas de Evaporación Solar</t>
+          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9591,15 +9591,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Humberto Urdangarin Beltrán</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2450</v>
+        <v>5400</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
+          <t>Construcción de Pozas de Evaporación Solar</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9639,15 +9639,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
+          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9687,15 +9687,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
+          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9735,15 +9735,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1300</v>
+        <v>21500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
+          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,11 +9787,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9831,25 +9831,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>18/08/1998</t>
+          <t>16/09/1998</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Variante Cordón La Pacana</t>
+          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,21 +9883,21 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>18/08/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
+          <t>Variante Cordón La Pacana</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9927,15 +9927,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>10700</v>
+        <v>4800</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>16/06/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
+          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9975,15 +9975,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>20</v>
+        <v>10700</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>13/05/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10023,15 +10023,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>32500</v>
+        <v>20</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>11/11/1997</t>
+          <t>13/05/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
+          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10071,15 +10071,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>600</v>
+        <v>32500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>03/09/1997</t>
+          <t>11/11/1997</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10104,12 +10104,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Gasoducto del Norte Grande (Nor Andino)</t>
+          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10119,15 +10119,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>120000</v>
+        <v>600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>29/08/1997</t>
+          <t>03/09/1997</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
+          <t>Gasoducto del Norte Grande (Nor Andino)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10167,15 +10167,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>46000</v>
+        <v>120000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>20/05/1997</t>
+          <t>29/08/1997</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Gasoducto Atacama</t>
+          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10215,15 +10215,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>120000</v>
+        <v>46000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>15/05/1997</t>
+          <t>20/05/1997</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+          <t>Gasoducto Atacama</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10263,15 +10263,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>124000</v>
+        <v>120000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>08/10/1996</t>
+          <t>15/05/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10296,43 +10296,91 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>SQM Salar S.A.</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>124000</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>08/10/1996</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>Proyecto para Producción de 300 mil Toneladas Anuales de Cloruro de Potasio</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
         <is>
           <t>SQM Salar S.A.</t>
         </is>
       </c>
-      <c r="F208" t="n">
+      <c r="F209" t="n">
         <v>92000</v>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>01/07/1994</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>San Pedro de Atacama</t>
         </is>

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/01/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4950</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>02/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158519340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
+          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>778</v>
+        <v>4950</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/01/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>778</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>31/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>987000</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
+          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>450</v>
+        <v>987000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02/06/2020</t>
+          <t>16/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
+          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>02/06/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Carbonato de Litio Mejillones</t>
+          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>583500</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
+          <t>Planta Carbonato de Litio Mejillones</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>450000</v>
+        <v>583500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
+          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/06/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
+          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CALTEC SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>07/06/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
+          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>CALTEC SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
+          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/05/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Aceites Residuales</t>
+          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Recicladora Ambiental Ltda.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>27/05/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
+          <t>Transporte de Aceites Residuales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Recicladora Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
+          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Áridos San Pedro SpA</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/04/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>13/04/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Áridos San Pedro SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2080</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>14/10/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>2050</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>19500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2475</v>
+        <v>212</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2728,40 +2728,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>17000</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Construcción Hotel Royal Decameron Atacama</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hoteles Decameron Colombia S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
+          <t>Construcción Hotel Royal Decameron Atacama</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Comunidad Atacameña de Toconao</t>
+          <t>Hoteles Decameron Colombia S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>12614</v>
+        <v>7000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Comunidad Atacameña de Toconao</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2450</v>
+        <v>12614</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>20000</v>
+        <v>2450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>07/12/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>07/12/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Prospección Minera El laco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Prospección Minera El laco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>09/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>16200</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/05/2011</t>
+          <t>15/07/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>600</v>
+        <v>16200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>13/05/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4800</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>17000</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación Planta SOP</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100000</v>
+        <v>4800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación Planta SOP</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>100000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>78</v>
+        <v>1750</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>70000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19/03/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>114</v>
+        <v>50000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>19/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>41075</v>
+        <v>114</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4050</v>
+        <v>41075</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>03/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorge Tellería Sepúlveda</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Jorge Tellería Sepúlveda</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Matias Riroroko Pakomio</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>17/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Matias Riroroko Pakomio</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/12/2009</t>
+          <t>17/12/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>15/12/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2847</v>
+        <v>91</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5483,21 +5483,21 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2791</v>
+        <v>2847</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>17/06/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>2791</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>17/06/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>19/05/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,10 +5608,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5619,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>19/05/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,14 +5656,10 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>380</v>
+        <v>17000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
+          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/05/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación Planta SOP (e-seia)</t>
+          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/04/2009</t>
+          <t>07/05/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,10 +5796,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>Modificación Planta SOP (e-seia)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5807,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Chilena de Litio Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>23/04/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5859,7 +5863,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>27/03/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5869,7 +5873,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5884,14 +5888,10 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5899,25 +5899,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Chilena de Litio Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2667</v>
+        <v>17000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>27/03/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,10 +5932,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5943,25 +5947,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX UNO de Peine</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>43200</v>
+        <v>2667</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/02/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5976,14 +5980,10 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5991,25 +5991,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Sociedad Legal Minera NX UNO de Peine</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>527393</v>
+        <v>43200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21/01/2009</t>
+          <t>20/02/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
+          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6039,25 +6039,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1500</v>
+        <v>527393</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>21/01/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6082,30 +6082,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6135,25 +6135,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6239,17 +6239,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6279,25 +6279,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6327,25 +6327,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,17 +6383,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,15 +6471,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,15 +6519,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6562,30 +6562,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Celso Eusebio Tapia Palavecinos</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
+          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6619,21 +6619,21 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
+          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6711,25 +6711,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Celso Eusebio Tapia Palavecinos</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6754,12 +6754,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6767,17 +6767,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6802,30 +6802,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Producción de Sales de Potasio (e-seia)</t>
+          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,17 +6863,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>17/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
+          <t>Producción de Sales de Potasio (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6903,25 +6903,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Juan Roberto Honorato Errázuriz</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1025</v>
+        <v>43200</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/12/2007</t>
+          <t>17/12/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6959,17 +6959,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>11/12/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7003,11 +7003,11 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7042,30 +7042,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Juan Roberto Honorato Errázuriz</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>429</v>
+        <v>950</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7090,20 +7090,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7138,30 +7138,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/10/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7191,15 +7191,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7239,15 +7239,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7282,30 +7282,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7343,17 +7343,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>28/02/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7378,30 +7378,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7431,25 +7431,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,40 +7464,40 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300000</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7512,12 +7512,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
+          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7527,25 +7527,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Indeclin Ltda.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>74</v>
+        <v>300000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>03/01/2007</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7570,20 +7570,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Indeclin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>03/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7618,20 +7618,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>569</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7666,30 +7666,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,17 +7727,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7810,30 +7810,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>alberto eduardo oñate cea</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7858,30 +7858,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>alberto eduardo oñate cea</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7919,17 +7919,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7959,25 +7959,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,17 +8015,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8055,25 +8055,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4130</v>
+        <v>500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8088,30 +8088,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
+          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2500</v>
+        <v>4130</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/11/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
+          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8151,25 +8151,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/11/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
+          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8199,25 +8199,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8232,12 +8232,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8247,25 +8247,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8303,17 +8303,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hotel Kunza</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8343,25 +8343,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Inversiones Surandino S.A</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>Hotel Kunza</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8391,25 +8391,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Inversiones Surandino S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8439,25 +8439,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>21/01/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8472,12 +8472,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
+          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8487,15 +8487,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>234198</v>
+        <v>88</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>10/01/2005</t>
+          <t>21/01/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
+          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8535,25 +8535,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>234198</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/12/2004</t>
+          <t>10/01/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hotel Rayo de Solor</t>
+          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8583,25 +8583,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>23/12/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Hotel Rayo de Solor</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8631,15 +8631,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8679,15 +8679,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
+          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8727,25 +8727,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Terracota Excursiones</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>18/08/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
+          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8775,25 +8775,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SEREMI MINVU II REGION</t>
+          <t>Terracota Excursiones</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>18/08/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8808,12 +8808,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Agro Turístico Terraluna</t>
+          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8823,25 +8823,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>SEREMI MINVU II REGION</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
+          <t>Agro Turístico Terraluna</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8871,25 +8871,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Wilson Manuel Reyes Araya</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hotel en Solcor</t>
+          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8919,25 +8919,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Wilson Manuel Reyes Araya</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>21/11/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Hotel en Solcor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8967,15 +8967,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>18/11/2003</t>
+          <t>21/11/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -9015,25 +9015,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Jorge Mario Schellman Balacco</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>23/04/2003</t>
+          <t>18/11/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
+          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9071,17 +9071,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>14/04/2003</t>
+          <t>23/04/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9106,30 +9106,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Jorge Mario Schellman Balacco</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/04/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -9167,17 +9167,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9192,40 +9192,40 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>552000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9240,12 +9240,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9255,25 +9255,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2000</v>
+        <v>552000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Turismo de Naturaleza en Beter</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9303,25 +9303,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Valles del Sur S.A.</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
+          <t>Turismo de Naturaleza en Beter</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9351,15 +9351,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Valles del Sur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>4540</v>
+        <v>3000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
+          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9399,15 +9399,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
+          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9447,15 +9447,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SLM PAO</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/01/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9480,12 +9480,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Agua del Río Puritama</t>
+          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9495,15 +9495,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>SLM PAO</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>23/01/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Hotel en Conde Duque</t>
+          <t>Aprovechamiento de Agua del Río Puritama</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9543,15 +9543,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juan Francisco d`Etigny Lira</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/03/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
+          <t>Hotel en Conde Duque</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9591,15 +9591,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Humberto Urdangarin Beltrán</t>
+          <t>Juan Francisco d`Etigny Lira</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>5400</v>
+        <v>40</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>12/03/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Construcción de Pozas de Evaporación Solar</t>
+          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9639,15 +9639,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Humberto Urdangarin Beltrán</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2450</v>
+        <v>5400</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
+          <t>Construcción de Pozas de Evaporación Solar</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9687,15 +9687,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
+          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9735,15 +9735,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
+          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9783,15 +9783,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1300</v>
+        <v>21500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
+          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,11 +9835,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9879,25 +9879,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>18/08/1998</t>
+          <t>16/09/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Variante Cordón La Pacana</t>
+          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,21 +9931,21 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>18/08/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
+          <t>Variante Cordón La Pacana</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9975,15 +9975,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>10700</v>
+        <v>4800</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>16/06/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
+          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10023,15 +10023,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>20</v>
+        <v>10700</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>13/05/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10071,15 +10071,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>32500</v>
+        <v>20</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>11/11/1997</t>
+          <t>13/05/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
+          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10119,15 +10119,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>600</v>
+        <v>32500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>03/09/1997</t>
+          <t>11/11/1997</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10152,12 +10152,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Gasoducto del Norte Grande (Nor Andino)</t>
+          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10167,15 +10167,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>120000</v>
+        <v>600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>29/08/1997</t>
+          <t>03/09/1997</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
+          <t>Gasoducto del Norte Grande (Nor Andino)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10215,15 +10215,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>46000</v>
+        <v>120000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>20/05/1997</t>
+          <t>29/08/1997</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gasoducto Atacama</t>
+          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10263,15 +10263,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>120000</v>
+        <v>46000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>15/05/1997</t>
+          <t>20/05/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+          <t>Gasoducto Atacama</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10311,15 +10311,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>124000</v>
+        <v>120000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>08/10/1996</t>
+          <t>15/05/1997</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10344,43 +10344,91 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>SQM Salar S.A.</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>124000</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>08/10/1996</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>Proyecto para Producción de 300 mil Toneladas Anuales de Cloruro de Potasio</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>SQM Salar S.A.</t>
         </is>
       </c>
-      <c r="F209" t="n">
+      <c r="F210" t="n">
         <v>92000</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>01/07/1994</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="I210" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>San Pedro de Atacama</t>
         </is>

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/02/2023</t>
+          <t>08/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,11 +6423,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -9591,7 +9591,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Juan Francisco d`Etigny Lira</t>
+          <t>Habitas Atacama SpA</t>
         </is>
       </c>
       <c r="F193" t="n">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Extensión de vida útil con transición hídrica - Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/02/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158519340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159410455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4950</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>08/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158519340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
+          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>778</v>
+        <v>4950</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/01/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3000</v>
+        <v>778</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>31/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>987000</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
+          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>450</v>
+        <v>987000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>02/06/2020</t>
+          <t>16/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
+          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>02/06/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Carbonato de Litio Mejillones</t>
+          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>583500</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
+          <t>Planta Carbonato de Litio Mejillones</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>450000</v>
+        <v>583500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
+          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/06/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
+          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CALTEC SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>07/06/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
+          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>CALTEC SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
+          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/05/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Aceites Residuales</t>
+          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Recicladora Ambiental Ltda.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>27/05/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
+          <t>Transporte de Aceites Residuales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Recicladora Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
+          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Áridos San Pedro SpA</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/04/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>13/04/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Áridos San Pedro SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2080</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>14/10/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>2050</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>19500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2475</v>
+        <v>212</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>210</v>
+        <v>2475</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2776,30 +2776,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>17000</v>
+        <v>210</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Construcción Hotel Royal Decameron Atacama</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hoteles Decameron Colombia S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
+          <t>Construcción Hotel Royal Decameron Atacama</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Comunidad Atacameña de Toconao</t>
+          <t>Hoteles Decameron Colombia S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>12614</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Comunidad Atacameña de Toconao</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2450</v>
+        <v>12614</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>20000</v>
+        <v>2450</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/12/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>07/12/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Prospección Minera El laco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Prospección Minera El laco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>09/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>16200</v>
+        <v>1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/05/2011</t>
+          <t>15/07/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>600</v>
+        <v>16200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>13/05/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4800</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17000</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliación Planta SOP</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100000</v>
+        <v>4800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación Planta SOP</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1750</v>
+        <v>100000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>78</v>
+        <v>1750</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>70000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/03/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>114</v>
+        <v>50000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>19/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>41075</v>
+        <v>114</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4050</v>
+        <v>41075</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>03/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jorge Tellería Sepúlveda</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Jorge Tellería Sepúlveda</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Matias Riroroko Pakomio</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>17/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Matias Riroroko Pakomio</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15/12/2009</t>
+          <t>17/12/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>15/12/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2847</v>
+        <v>91</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5531,21 +5531,21 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2791</v>
+        <v>2847</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>17/06/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>2791</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>17/06/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19/05/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,10 +5656,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5667,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>19/05/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,14 +5704,10 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>380</v>
+        <v>17000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
+          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/05/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación Planta SOP (e-seia)</t>
+          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/04/2009</t>
+          <t>07/05/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,10 +5844,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>Modificación Planta SOP (e-seia)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5855,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Chilena de Litio Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>23/04/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5907,7 +5911,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>27/03/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5917,7 +5921,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5932,14 +5936,10 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5947,25 +5947,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Chilena de Litio Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2667</v>
+        <v>17000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>27/03/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,10 +5980,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5991,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX UNO de Peine</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>43200</v>
+        <v>2667</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/02/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6024,14 +6028,10 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -6039,25 +6039,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Sociedad Legal Minera NX UNO de Peine</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>527393</v>
+        <v>43200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/01/2009</t>
+          <t>20/02/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
+          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6087,25 +6087,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>527393</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>21/01/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6130,30 +6130,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6183,25 +6183,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6287,17 +6287,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6327,25 +6327,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,25 +6375,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,15 +6423,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6527,17 +6527,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6567,15 +6567,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6610,30 +6610,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Celso Eusebio Tapia Palavecinos</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
+          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6667,21 +6667,21 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
+          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6759,25 +6759,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Celso Eusebio Tapia Palavecinos</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6815,17 +6815,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6850,30 +6850,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Producción de Sales de Potasio (e-seia)</t>
+          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,17 +6911,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>17/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
+          <t>Producción de Sales de Potasio (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6951,25 +6951,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Juan Roberto Honorato Errázuriz</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1025</v>
+        <v>43200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/12/2007</t>
+          <t>17/12/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7007,17 +7007,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>11/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7051,11 +7051,11 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7090,30 +7090,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Juan Roberto Honorato Errázuriz</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>429</v>
+        <v>950</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7138,20 +7138,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>23/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7186,30 +7186,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/10/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7239,15 +7239,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7287,15 +7287,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7330,30 +7330,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7391,17 +7391,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>28/02/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7426,30 +7426,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7479,25 +7479,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7512,40 +7512,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300000</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
+          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7575,25 +7575,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Indeclin Ltda.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>74</v>
+        <v>300000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>03/01/2007</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7618,20 +7618,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Indeclin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>03/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7666,20 +7666,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>569</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7714,30 +7714,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,17 +7775,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7858,30 +7858,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>alberto eduardo oñate cea</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7906,30 +7906,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>alberto eduardo oñate cea</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7967,17 +7967,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8007,25 +8007,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,17 +8063,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8103,25 +8103,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4130</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8136,30 +8136,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
+          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2500</v>
+        <v>4130</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/11/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
+          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8199,25 +8199,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/11/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
+          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8247,25 +8247,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8280,12 +8280,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8295,25 +8295,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8351,17 +8351,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Hotel Kunza</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8391,25 +8391,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inversiones Surandino S.A</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>Hotel Kunza</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8439,25 +8439,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Inversiones Surandino S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8487,25 +8487,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>21/01/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8520,12 +8520,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
+          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8535,15 +8535,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>234198</v>
+        <v>88</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>10/01/2005</t>
+          <t>21/01/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
+          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8583,25 +8583,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>234198</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>23/12/2004</t>
+          <t>10/01/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Hotel Rayo de Solor</t>
+          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8631,25 +8631,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>23/12/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8664,12 +8664,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Hotel Rayo de Solor</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8679,15 +8679,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8727,15 +8727,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
+          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8775,25 +8775,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Terracota Excursiones</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>18/08/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
+          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8823,25 +8823,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SEREMI MINVU II REGION</t>
+          <t>Terracota Excursiones</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>18/08/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Agro Turístico Terraluna</t>
+          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8871,25 +8871,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>SEREMI MINVU II REGION</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
+          <t>Agro Turístico Terraluna</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8919,25 +8919,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Wilson Manuel Reyes Araya</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Hotel en Solcor</t>
+          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8967,25 +8967,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Wilson Manuel Reyes Araya</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>21/11/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Hotel en Solcor</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9015,15 +9015,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>18/11/2003</t>
+          <t>21/11/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -9063,25 +9063,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Jorge Mario Schellman Balacco</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>23/04/2003</t>
+          <t>18/11/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
+          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,17 +9119,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>14/04/2003</t>
+          <t>23/04/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9154,30 +9154,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Jorge Mario Schellman Balacco</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/04/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -9215,17 +9215,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9240,40 +9240,40 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>552000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9288,12 +9288,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9303,25 +9303,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2000</v>
+        <v>552000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Turismo de Naturaleza en Beter</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9351,25 +9351,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Valles del Sur S.A.</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
+          <t>Turismo de Naturaleza en Beter</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9399,15 +9399,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Valles del Sur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4540</v>
+        <v>3000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
+          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9447,15 +9447,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9480,12 +9480,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
+          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9495,15 +9495,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SLM PAO</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>23/01/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9528,12 +9528,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Agua del Río Puritama</t>
+          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9543,15 +9543,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>SLM PAO</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>23/01/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hotel en Conde Duque</t>
+          <t>Aprovechamiento de Agua del Río Puritama</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9591,15 +9591,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Habitas Atacama SpA</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/03/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
+          <t>Hotel en Conde Duque</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9639,15 +9639,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Humberto Urdangarin Beltrán</t>
+          <t>Habitas Atacama SpA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>5400</v>
+        <v>40</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>12/03/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Construcción de Pozas de Evaporación Solar</t>
+          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9687,15 +9687,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Humberto Urdangarin Beltrán</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2450</v>
+        <v>5400</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
+          <t>Construcción de Pozas de Evaporación Solar</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9735,15 +9735,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
+          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9783,15 +9783,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
+          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9831,15 +9831,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1300</v>
+        <v>21500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
+          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,11 +9883,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9927,25 +9927,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>18/08/1998</t>
+          <t>16/09/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Variante Cordón La Pacana</t>
+          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,21 +9979,21 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>18/08/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
+          <t>Variante Cordón La Pacana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10023,15 +10023,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>10700</v>
+        <v>4800</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>16/06/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
+          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10071,15 +10071,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>20</v>
+        <v>10700</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>13/05/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10119,15 +10119,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>32500</v>
+        <v>20</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>11/11/1997</t>
+          <t>13/05/1998</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
+          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10167,15 +10167,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>600</v>
+        <v>32500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>03/09/1997</t>
+          <t>11/11/1997</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10200,12 +10200,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Gasoducto del Norte Grande (Nor Andino)</t>
+          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10215,15 +10215,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>120000</v>
+        <v>600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>29/08/1997</t>
+          <t>03/09/1997</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
+          <t>Gasoducto del Norte Grande (Nor Andino)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10263,15 +10263,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>46000</v>
+        <v>120000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/05/1997</t>
+          <t>29/08/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Gasoducto Atacama</t>
+          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10311,15 +10311,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>120000</v>
+        <v>46000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>15/05/1997</t>
+          <t>20/05/1997</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+          <t>Gasoducto Atacama</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10359,15 +10359,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>124000</v>
+        <v>120000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>08/10/1996</t>
+          <t>15/05/1997</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10392,43 +10392,91 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>SQM Salar S.A.</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>124000</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>08/10/1996</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>Proyecto para Producción de 300 mil Toneladas Anuales de Cloruro de Potasio</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
         <is>
           <t>SQM Salar S.A.</t>
         </is>
       </c>
-      <c r="F210" t="n">
+      <c r="F211" t="n">
         <v>92000</v>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>01/07/1994</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="I211" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>San Pedro de Atacama</t>
         </is>

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6471,11 +6471,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extensión de vida útil con transición hídrica - Compañía Minera Zaldívar</t>
+          <t>Exploraciones Aida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159410455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Extensión de vida útil con transición hídrica - Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/02/2023</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158519340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159410455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4950</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>08/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158519340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
+          <t>Habilitación de Puntos de Monitoreo para variables Hídricas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indígena Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>778</v>
+        <v>4950</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/01/2022</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158453751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto Prospecciones Aida</t>
+          <t>Plan de Reducción de Extracciones en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINERA PLATA CARINA SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>778</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>31/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154490427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
+          <t>Proyecto Prospecciones Aida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>MINERA PLATA CARINA SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>987000</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154471761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
+          <t>Aumento de Capacidad y Optimización Producción Planta de Litio Carmen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>450</v>
+        <v>987000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02/06/2020</t>
+          <t>16/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154344347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
+          <t>Actualización Plan de Alerta Temprana y Seguimiento Ambiental, Salar de Atacama</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06/12/2019</t>
+          <t>02/06/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146676600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Carbonato de Litio Mejillones</t>
+          <t>RED DE MONITOREO AMBIENTAL SALAR DE ATACAMA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>583500</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/09/2018</t>
+          <t>06/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145162665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
+          <t>Planta Carbonato de Litio Mejillones</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>450000</v>
+        <v>583500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>26/09/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141408880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
+          <t>Ampliación de la Planta de Carbonato de Litio a 180.000 ton/año</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100000</v>
+        <v>450000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/06/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140991364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
+          <t>Continuidad Operacional Compañía Minera Zaldívar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CALTEC SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>07/06/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139258961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
+          <t>IMPORTACIÓN, ALMACENAMIENTO Y TRANSPORTE DE CAL VIVA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>CALTEC SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/11/2016</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138357850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
+          <t>AMPLIACIÓN PLANTA LA NEGRA - FASE 3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>300000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/05/2016</t>
+          <t>23/11/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946967&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Aceites Residuales</t>
+          <t>RAMAL DE DISTRIBUCION PARA ABASTECIMIENTO DE GAS NATURAL AL OBSERVATORIO ALMA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Recicladora Ambiental Ltda.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>27/05/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131414850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
+          <t>Transporte de Aceites Residuales</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Recicladora Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130728737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
+          <t>Modificación de Rutas del Transporte terrestre de ácido sulfúrico por las rutas de la segunda región de Antofagasta</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Áridos San Pedro SpA</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/04/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130362735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/03/2015</t>
+          <t>13/04/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130348352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción y Procesamiento de Áridos Sector Aguada de la Teca</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Áridos San Pedro SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>23/03/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130331601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Normalización y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129475019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2080</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Normalizacion y Ampliacion Relleno Sanitario San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2050</v>
+        <v>2080</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>14/10/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>2050</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Secador Planta Potasa Rockwood Litio Limitada</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8337996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19500</v>
+        <v>2050</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REPOSICIÓN DEL MUSEO ARQUEOLOGICO R.P. GUSTAVO LE PAIGE, COMUNA DE SAN PEDRO DE ATACAMA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>19500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8201663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2475</v>
+        <v>212</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,30 +2824,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17000</v>
+        <v>210</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción Hotel Royal Decameron Atacama</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hoteles Decameron Colombia S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/02/2013</t>
+          <t>19/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7893580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
+          <t>Construcción Hotel Royal Decameron Atacama</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Comunidad Atacameña de Toconao</t>
+          <t>Hoteles Decameron Colombia S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12614</v>
+        <v>7000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>06/02/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7772818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Desarrollo de Circuito de contemplación de Fauna Nativa en Salar de Pujsa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>Comunidad Atacameña de Toconao</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2450</v>
+        <v>12614</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>20000</v>
+        <v>2450</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/12/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>07/12/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7616935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Prospección Minera El laco</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Minera Santa Fé</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Prospección Minera El laco</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Santa Fé</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>09/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6880009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LA I, II Y III REGIONES"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>16200</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/05/2011</t>
+          <t>15/07/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5753783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Planta Generadora Multicombustible - Proyecto ALMA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>600</v>
+        <v>16200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>13/05/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5610825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4800</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5335545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Planta de Sulfato de Cobre Pentahidratado</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Minera Delfin S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17000</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
+          <t>Planta de Sulfato de Cobre Pentahidratado</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Minera Delfin S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/10/2010</t>
+          <t>21/01/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5264274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Aumento de Capacidad de Procesamiento de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>25/10/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5026841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ampliación Planta SOP</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100000</v>
+        <v>4800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación Planta SOP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1750</v>
+        <v>100000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>13/09/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4929945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>78</v>
+        <v>1750</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos M&amp;M Ltda</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>28/07/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4790984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>70000</v>
+        <v>600</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/06/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Nueva Planta de Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>70000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>14/06/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>50000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4543025&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4502551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>50000</v>
+        <v>4050</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19/03/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador San Pedro de Atacama</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>114</v>
+        <v>50000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/03/2010</t>
+          <t>19/03/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Actualización Plan Regulador San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>41075</v>
+        <v>114</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>18/03/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4376122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4050</v>
+        <v>41075</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Actualización Plan Regulador de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>03/02/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jorge Tellería Sepúlveda</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Jorge Tellería Sepúlveda</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>18/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Matias Riroroko Pakomio</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>17/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4261066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
+          <t>AMPLIACION HOTEL IORANA TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Matias Riroroko Pakomio</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>86</v>
+        <v>600</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/12/2009</t>
+          <t>17/12/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4190335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hostal Villa Carolina (e-seia)</t>
+          <t>Transporte de Residuos Sólidos y Líquidos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>José Victor Beltrán García</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>15/12/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4246695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Hostal Villa Carolina (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>José Victor Beltrán García</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4197501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2847</v>
+        <v>91</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5579,21 +5579,21 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2791</v>
+        <v>2847</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>17/06/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILLADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>2791</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>17/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3855345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20000</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>19/05/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,10 +5704,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>Aumento de Capacidad de Secado y Compactado de Cloruro de Potasio (e-seia)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5715,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>19/05/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3798716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,14 +5752,10 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>380</v>
+        <v>17000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/05/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788682&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
+          <t>CUMBRES DEL LICANCABUR (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>PATRICIA ORIANA VARGAS RAMIREZ</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/05/2009</t>
+          <t>14/05/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3785696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación Planta SOP (e-seia)</t>
+          <t>DIA Transporte de Combustible a Faenas Mineras, II Región Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/04/2009</t>
+          <t>07/05/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3566648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,10 +5892,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>Modificación Planta SOP (e-seia)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5903,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Chilena de Litio Ltda.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>23/04/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+          <t>Modificaciones y Mejoramiento del Sistema de Pozas de Evaporación Solar en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5955,7 +5959,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>27/03/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5965,7 +5969,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3712373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5980,14 +5984,10 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificaciones y Mejoramiento del Sistema de pozas de Evaporación Solar en el Salar de Atacama</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -5995,25 +5995,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
+          <t>Sociedad Chilena de Litio Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2667</v>
+        <v>17000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>27/03/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3656854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6028,10 +6028,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>MEJORAMIENTO SISTEMA DE ALCANTARILADO DE AGUAS SERVIDAS DE SAN PEDRO DE ATACAMA (e-seia)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -6039,25 +6043,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX UNO de Peine</t>
+          <t>Comité de Agua Potable Rural de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>43200</v>
+        <v>2667</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/02/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3642371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6072,14 +6076,10 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Planta de Producción de Sales de Potasio, SLM NX Uno de Peine</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -6087,25 +6087,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Sociedad Legal Minera NX UNO de Peine</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>527393</v>
+        <v>43200</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21/01/2009</t>
+          <t>20/02/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3569205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
+          <t>Ampliación Producción Cloruro de Potasio Salar (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6135,25 +6135,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1500</v>
+        <v>527393</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>21/01/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3510516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Reposición Planta de Procesamiento de Minerales de Hierro El Laco (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6178,30 +6178,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>1500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3317030&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6231,25 +6231,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6335,17 +6335,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6375,25 +6375,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6423,25 +6423,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6575,17 +6575,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6615,15 +6615,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6658,30 +6658,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Celso Eusebio Tapia Palavecinos</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>07/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
+          <t>Investigación y Exploración de Aguas Subterraneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6715,21 +6715,21 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>13/03/2008</t>
+          <t>07/04/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2826455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
+          <t>exploración e investigación aguas subterráneas Chatita (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6763,7 +6763,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
+          <t>Exploración e Investigación Aguas Subterráneas Renovación y Encuentro (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6807,25 +6807,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Celso Eusebio Tapia Palavecinos</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/03/2008</t>
+          <t>13/03/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2738875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGULADOR DE SAN PEDRO DE ATACAMA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6850,12 +6850,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6863,17 +6863,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/03/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2754092&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6898,30 +6898,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Producción de Sales de Potasio (e-seia)</t>
+          <t>PRODUCCIÓN DE SALES DE POTASIO (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,17 +6959,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>17/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2643761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
+          <t>Producción de Sales de Potasio (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6999,25 +6999,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Juan Roberto Honorato Errázuriz</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1025</v>
+        <v>43200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/12/2007</t>
+          <t>17/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2575316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7055,17 +7055,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/11/2007</t>
+          <t>11/12/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7099,11 +7099,11 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>950</v>
+        <v>1025</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>19/11/2007</t>
+          <t>30/11/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Complejo Turístico Hotel Pacsa (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7138,30 +7138,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Juan Roberto Honorato Errázuriz</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>429</v>
+        <v>950</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/11/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2508706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7186,20 +7186,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>23/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Conservación y Mejoramiento conexión Vial San Pedro - El Tatio (Rutas B-245 - 235), Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7234,30 +7234,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>23/10/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2430271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7287,15 +7287,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7335,15 +7335,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7378,30 +7378,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7439,17 +7439,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>28/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2013539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
+          <t>Tendido Eléctrico Planta SCL-Peine (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7474,30 +7474,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Codelco Chile, División Chuquicamata</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1980129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Actualización Gestión de Ácido Sulfúrico, Codelco Norte (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7527,25 +7527,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Codelco Chile, División Chuquicamata</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>15/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7560,40 +7560,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300000</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7608,12 +7608,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
+          <t>SUMINISTRO DE AGUA PAMPA COLORADA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7623,25 +7623,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Indeclin Ltda.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>74</v>
+        <v>300000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>03/01/2007</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>INCINERACIÓN DE DESECHOS CLÍNICOS Y BIOLÓGICOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7666,20 +7666,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Indeclin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>03/01/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1894414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7714,20 +7714,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>569</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>CONSTRUCCIÓN TENDIDO ELECTRICO PLANTA EL LITIO-PEINE (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7762,30 +7762,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ilustre Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>21/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1869844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,17 +7823,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7906,30 +7906,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>alberto eduardo oñate cea</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>31/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>PROYECTO PLANTA DE RECICLAJE DE BORRAS PLOMADAS, BATERÍAS AGOTADAS Y DESECHOS PLOMADOS VARIOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7954,30 +7954,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>alberto eduardo oñate cea</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>138</v>
+        <v>1000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>31/08/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1659597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8015,17 +8015,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8055,25 +8055,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>138</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,17 +8111,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8151,25 +8151,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4130</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8184,30 +8184,30 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
+          <t>TRANSPORTE TERRESTRE DE ÓXIDO CÁLCICO ENTRE LA PRIMERA Y TERCERA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2500</v>
+        <v>4130</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/11/2005</t>
+          <t>02/01/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1190550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
+          <t>Hotel Yakana Relocalización y Cambio del Proyecto Hotel en Solcor aprobado con Resolución Exenta de COREMA II Región Nº0088/2004</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8247,25 +8247,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Turismo Sam Petero Ltda.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/11/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1171177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8280,7 +8280,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
+          <t>AMPLIACION 2ª ETAPA CABAÑAS IORANA (EX TOLACHE)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8295,25 +8295,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad Legal Minera NX Uno de Peine</t>
+          <t>Turismo Sam Petero Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1232304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8328,12 +8328,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>SONDAJE HIDROGEOLÓGICOS Y PROSPECCIÓN DE SALES. PEINE II REGION</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8343,25 +8343,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Sociedad Legal Minera NX Uno de Peine</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1205221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8399,17 +8399,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>12/07/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=920240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Hotel Kunza</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8439,25 +8439,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Inversiones Surandino S.A</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=885860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8472,12 +8472,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CABAÑAS EN TOLACHE (e-seia)</t>
+          <t>Hotel Kunza</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8487,25 +8487,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>JOSE MANUEL RAMOS BRAVO</t>
+          <t>Inversiones Surandino S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1008880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
+          <t>CABAÑAS EN TOLACHE (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8535,25 +8535,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>JOSE MANUEL RAMOS BRAVO</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>21/01/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862121&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
+          <t>Construcción Replica de Petroglifo, Sector Cordillera de la Sal (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8583,15 +8583,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>234198</v>
+        <v>88</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>10/01/2005</t>
+          <t>21/01/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576094&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
+          <t>Cambios y Mejoras de la Operación Minera en el Salar de Atacama</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8631,25 +8631,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>234198</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/12/2004</t>
+          <t>10/01/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1040282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8664,12 +8664,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hotel Rayo de Solor</t>
+          <t>Construcción Segunda Replica de Petroglifo Atacameño en Cordillera de la Sal, Comuna San de Atacama. (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8679,25 +8679,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>23/12/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=548075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8712,12 +8712,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
+          <t>Hotel Rayo de Solor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -8727,15 +8727,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Antonio Carracedo Rosende</t>
+          <t>Servicios Gastronomicos de Entretencion y Turismo Ltda</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21/10/2004</t>
+          <t>29/11/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
+          <t>Transporte de Productos Industriales por la II Región de Antofagasta (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8775,15 +8775,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
+          <t>Antonio Carracedo Rosende</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>21/10/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=485670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
+          <t>Construcción replica de petroglifo atacameño en sector Llano de la Paciencia, Comuna de San Pedro de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8823,25 +8823,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Terracota Excursiones</t>
+          <t>Asociación Indigena, Consejo de Pueblos Atacameños</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>18/08/2004</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
+          <t>Lodge Ines de Suares de San Pedro (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8871,25 +8871,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SEREMI MINVU II REGION</t>
+          <t>Terracota Excursiones</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>18/08/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=423328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Agro Turístico Terraluna</t>
+          <t>Plan Regional de Desarrollo Urbano II Región (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8919,25 +8919,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Philippe Reuter Reuter</t>
+          <t>SEREMI MINVU II REGION</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=392317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
+          <t>Agro Turístico Terraluna</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8967,25 +8967,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Wilson Manuel Reyes Araya</t>
+          <t>Philippe Reuter Reuter</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>30/03/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1087816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hotel en Solcor</t>
+          <t>"Construcción, réplica de petroglifo atacameño en sector Llano de la Paciencia, comuna San Pedro de Atacama" (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -9015,25 +9015,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inversiones Solcor Limitada</t>
+          <t>Wilson Manuel Reyes Araya</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>21/11/2003</t>
+          <t>30/03/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=305246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Hotel en Solcor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9063,15 +9063,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>Inversiones Solcor Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>18/11/2003</t>
+          <t>21/11/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9111,25 +9111,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Jorge Mario Schellman Balacco</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>23/04/2003</t>
+          <t>18/11/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
+          <t>EXPLORACIÓN DE AGUAS SUBTERRANEAS EN LA CUENCA HIDROGRÁFICA EN EL SALAR DE PUJSA (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,17 +9167,17 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>14/04/2003</t>
+          <t>23/04/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=72174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Exploración de Aguas Subterráneas en la Cuenca Hidrográfica del Salar de Pujsa (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9202,30 +9202,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Jorge Mario Schellman Balacco</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/04/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=67002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -9263,17 +9263,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9288,40 +9288,40 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>European Southern Observatory, ESO</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>552000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hospedería en el Ayllu de Yaye</t>
+          <t>Gran Radiotelescopio de Atacama o The Atacama Large Millimeter Array ALMA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9351,25 +9351,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ZAPALERI S.A.</t>
+          <t>European Southern Observatory, ESO</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2000</v>
+        <v>552000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Turismo de Naturaleza en Beter</t>
+          <t>Hospedería en el Ayllu de Yaye</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9399,25 +9399,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Valles del Sur S.A.</t>
+          <t>ZAPALERI S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
+          <t>Turismo de Naturaleza en Beter</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9447,15 +9447,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Valles del Sur S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4540</v>
+        <v>3000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>15/02/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
+          <t>Producción de Cloruro de Potasio a partir de Sales de Carnalita de Potasio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9495,15 +9495,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>4540</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>15/02/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5124&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9528,12 +9528,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
+          <t>Transporte de Sustancias Peligrosas y Sistematización de la Información Relativa a su Almacenamiento</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9543,15 +9543,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SLM PAO</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>23/01/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9576,12 +9576,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Agua del Río Puritama</t>
+          <t>Extracción de Sulfato de Sodio en el Salar de Pujsa Comuna de San Pedro de Atacama II Región</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9591,15 +9591,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Explora S.A.</t>
+          <t>SLM PAO</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>23/01/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Hotel en Conde Duque</t>
+          <t>Aprovechamiento de Agua del Río Puritama</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9639,15 +9639,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Habitas Atacama SpA</t>
+          <t>Explora S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/03/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
+          <t>Hotel en Conde Duque</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9687,15 +9687,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Humberto Urdangarin Beltrán</t>
+          <t>Habitas Atacama SpA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>5400</v>
+        <v>40</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/01/2001</t>
+          <t>12/03/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción de Pozas de Evaporación Solar</t>
+          <t>Hotel en Suchor Ayllo de Quitor San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9735,15 +9735,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Albemarle Limitada</t>
+          <t>Humberto Urdangarin Beltrán</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2450</v>
+        <v>5400</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>15/01/2001</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
+          <t>Construcción de Pozas de Evaporación Solar</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9783,15 +9783,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>Albemarle Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
+          <t>Planes Seccionales Area Entorno Pukara de Quitor y Area Entorno Pozo Tres Comuna de San Pedro de Atacama.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9831,15 +9831,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>10/06/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
+          <t>Reemplazo Parcial de Pozas de Evaporación Solar del Proyecto de producción de Sulfato de Potasio y Acido Bórico</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9879,15 +9879,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1300</v>
+        <v>21500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/05/1999</t>
+          <t>10/06/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
+          <t>Construcción Alcantarillado de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,11 +9931,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>16/09/1998</t>
+          <t>27/05/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Sólidos Domiciliarios de la Localidad de San Pedro de Atacama y Toconao</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9975,25 +9975,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1600</v>
+        <v>30</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>18/08/1998</t>
+          <t>16/09/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Variante Cordón La Pacana</t>
+          <t>Variantes San Pedro de Atacama Barros Arana y Calama</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,21 +10027,21 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>16/06/1998</t>
+          <t>18/08/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
+          <t>Variante Cordón La Pacana</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10071,15 +10071,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>10700</v>
+        <v>4800</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>12/06/1998</t>
+          <t>16/06/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
+          <t>Planta Secado y Compactado de Cloruro de Potasio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10119,15 +10119,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Pedro de Atacama</t>
+          <t>SQM Salar S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>20</v>
+        <v>10700</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>13/05/1998</t>
+          <t>12/06/1998</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
+          <t>Habilitación de un Vertedero Artesanal para la Disposición de Residuos Solidos Domiciliarios de la Localidad de Socaire</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10167,15 +10167,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>I. Municipalidad de San Pedro de Atacama</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>32500</v>
+        <v>20</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>11/11/1997</t>
+          <t>13/05/1998</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
+          <t>S/E Laberinto. Sistema de Transmisión S/E Oeste - S/E Atacama - S/E Nueva Zaldivar</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10215,15 +10215,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>600</v>
+        <v>32500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>03/09/1997</t>
+          <t>11/11/1997</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10248,12 +10248,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gasoducto del Norte Grande (Nor Andino)</t>
+          <t>Construcción de Instalaciones Hoteleras en el Ayllu de Catarpe</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10263,15 +10263,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Gasoducto Nor Andino S.A.</t>
+          <t>Inmobiliaria Darío Urzúa 1825 Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>120000</v>
+        <v>600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>29/08/1997</t>
+          <t>03/09/1997</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
+          <t>Gasoducto del Norte Grande (Nor Andino)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10311,15 +10311,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AES GENER S.A</t>
+          <t>Gasoducto Nor Andino S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>46000</v>
+        <v>120000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>20/05/1997</t>
+          <t>29/08/1997</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Gasoducto Atacama</t>
+          <t>Sistema de Transmisión Eléctrica SICO-S/E Atacama</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10359,15 +10359,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AES GENER S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>120000</v>
+        <v>46000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>15/05/1997</t>
+          <t>20/05/1997</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+          <t>Gasoducto Atacama</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10407,15 +10407,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SQM Salar S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>124000</v>
+        <v>120000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>08/10/1996</t>
+          <t>15/05/1997</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10440,43 +10440,91 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
+          <t>Producción de Sulfato de Potasio Ácido Bórico con ampliación de la capacidad productiva de Cloruro de Potasio</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>SQM Salar S.A.</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>124000</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>08/10/1996</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=313&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
           <t>Proyecto para Producción de 300 mil Toneladas Anuales de Cloruro de Potasio</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>SQM Salar S.A.</t>
         </is>
       </c>
-      <c r="F211" t="n">
+      <c r="F212" t="n">
         <v>92000</v>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>01/07/1994</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
+      <c r="I212" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=906&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>San Pedro de Atacama</t>
         </is>

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6567,11 +6567,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6580,12 +6580,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6567,11 +6567,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6580,12 +6580,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Pedro de Atacama.xlsx
+++ b/data/San Pedro de Atacama.xlsx
@@ -6100,7 +6100,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
